--- a/Eagle/CPL-GD32F407RE.xlsx
+++ b/Eagle/CPL-GD32F407RE.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="GD32F207RG" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GD32F407RE" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -269,7 +269,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Eagle/CPL-GD32F407RE.xlsx
+++ b/Eagle/CPL-GD32F407RE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -91,13 +91,16 @@
     <t xml:space="preserve">C17</t>
   </si>
   <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">J3</t>
+    <t xml:space="preserve">J2</t>
   </si>
   <si>
     <t xml:space="preserve">LED1</t>
@@ -112,6 +115,12 @@
     <t xml:space="preserve">LED4</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
@@ -152,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
   </si>
 </sst>
 </file>
@@ -237,15 +249,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,14 +274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,11 +312,11 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>29.85</v>
+      <c r="B2" s="1" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>33.34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -317,11 +329,11 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>23.5</v>
+      <c r="B3" s="1" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>26.99</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -334,11 +346,11 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>34.29</v>
+      <c r="B4" s="1" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>36.51</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -351,11 +363,11 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>34.29</v>
+      <c r="B5" s="1" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>36.51</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -368,45 +380,45 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>14.61</v>
+      <c r="B6" s="1" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>15.88</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="C7" s="3" t="n">
+      <c r="B7" s="1" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>11.11</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>15.24</v>
+      <c r="B8" s="1" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>15.56</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -419,10 +431,10 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B9" s="1" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>21.59</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -436,10 +448,10 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="B10" s="1" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>15.56</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -453,10 +465,10 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="1" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>30.8</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -470,10 +482,10 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="C12" s="3" t="n">
+      <c r="B12" s="1" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>15.56</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -487,10 +499,10 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="C13" s="3" t="n">
+      <c r="B13" s="1" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>33.02</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -504,27 +516,27 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="C14" s="3" t="n">
+      <c r="B14" s="1" t="n">
+        <v>39.69</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>35.88</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="C15" s="3" t="n">
+      <c r="B15" s="1" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>53.66</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -538,10 +550,10 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="C16" s="3" t="n">
+      <c r="B16" s="1" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>30.8</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -555,11 +567,11 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>16.51</v>
+      <c r="B17" s="1" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>17.78</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -572,10 +584,10 @@
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="C18" s="3" t="n">
+      <c r="B18" s="1" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>38.1</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -589,45 +601,45 @@
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>35.24</v>
+      <c r="B19" s="1" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>12.38</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>12.7</v>
+      <c r="B20" s="1" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>35.24</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>11.43</v>
+      <c r="B21" s="1" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>13.97</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
@@ -640,28 +652,28 @@
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>20.96</v>
+      <c r="B22" s="1" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>12.07</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>19.69</v>
+      <c r="C23" s="1" t="n">
+        <v>21.91</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -674,11 +686,11 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>18.41</v>
+      <c r="C24" s="1" t="n">
+        <v>20.64</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
@@ -691,11 +703,11 @@
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>17.14</v>
+      <c r="C25" s="1" t="n">
+        <v>19.37</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
@@ -708,96 +720,96 @@
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>12.38</v>
+      <c r="B26" s="1" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>18.1</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>37.15</v>
+      <c r="B27" s="1" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>30.16</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>26.67</v>
+      <c r="B28" s="1" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>33.97</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>51.44</v>
+      <c r="B29" s="1" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>12.38</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>15.56</v>
+      <c r="B30" s="1" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>55.88</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3" t="n">
-        <v>18.41</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>15.56</v>
+      <c r="B31" s="1" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>30.16</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
@@ -810,79 +822,79 @@
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>15.56</v>
+      <c r="B32" s="1" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>51.44</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>8.57</v>
+      <c r="B33" s="1" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>15.56</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>10.79</v>
+      <c r="B34" s="1" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>15.56</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>19.05</v>
+      <c r="B35" s="1" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>15.56</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="3" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>52.07</v>
+      <c r="B36" s="1" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>9.84</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>6</v>
@@ -895,11 +907,11 @@
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="3" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>52.07</v>
+      <c r="B37" s="1" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>12.07</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>6</v>
@@ -913,10 +925,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>19.05</v>
+        <v>6.67</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>25.08</v>
+        <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
@@ -929,46 +941,86 @@
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="3" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>11.75</v>
+      <c r="B39" s="1" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>52.07</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3" t="n">
         <v>270</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
@@ -1032,6 +1084,27 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
